--- a/sql/0004_staffs.xlsx
+++ b/sql/0004_staffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\Rink\projects\tools\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA3B14B-5273-40B9-A25E-C7DAB1BD993C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255BBFB1-929E-4E25-85A8-A7E678F0D755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29860" yWindow="4310" windowWidth="21590" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36380" yWindow="1540" windowWidth="28610" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -246,6 +246,80 @@
       <t>シキベツシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WindowsID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MicrosoftID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示優先度</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体会員コード（Studyサプリ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体会員コード（サプリEnglish）</t>
+  </si>
+  <si>
+    <t>1001@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>1002@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>1003@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>2001@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>2002@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>2003@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>3001@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>3002@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>3003@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>4001@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>4002@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>4003@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>5001@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>5002@staff.arteria-s.net</t>
+  </si>
+  <si>
+    <t>5003@staff.arteria-s.net</t>
   </si>
 </sst>
 </file>
@@ -578,11 +652,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -592,10 +664,15 @@
     <col min="4" max="4" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,8 +694,26 @@
       <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
@@ -641,8 +736,26 @@
         <f>B2&amp;"@staff.arteria-s.net"</f>
         <v>1001@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1">
+        <v>110011</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10000001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>20000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2022</v>
       </c>
@@ -662,11 +775,29 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G16" si="0">B3&amp;"@staff.arteria-s.net"</f>
+        <f t="shared" ref="G3:I16" si="0">B3&amp;"@staff.arteria-s.net"</f>
         <v>1002@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1">
+        <v>110012</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10000002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>20000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
@@ -689,8 +820,26 @@
         <f t="shared" si="0"/>
         <v>1003@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1">
+        <v>110013</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10000003</v>
+      </c>
+      <c r="M4" s="1">
+        <v>20000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
@@ -713,8 +862,26 @@
         <f t="shared" si="0"/>
         <v>2001@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="1">
+        <v>210014</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10000004</v>
+      </c>
+      <c r="M5" s="1">
+        <v>20000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -737,8 +904,26 @@
         <f t="shared" si="0"/>
         <v>2002@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1">
+        <v>210015</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10000005</v>
+      </c>
+      <c r="M6" s="1">
+        <v>20000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>2022</v>
       </c>
@@ -761,8 +946,26 @@
         <f t="shared" si="0"/>
         <v>2003@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>2003</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1">
+        <v>210016</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10000006</v>
+      </c>
+      <c r="M7" s="1">
+        <v>20000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>2022</v>
       </c>
@@ -785,8 +988,26 @@
         <f t="shared" si="0"/>
         <v>3001@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1">
+        <v>3001</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1">
+        <v>310017</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10000007</v>
+      </c>
+      <c r="M8" s="1">
+        <v>20000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>2022</v>
       </c>
@@ -809,8 +1030,26 @@
         <f t="shared" si="0"/>
         <v>3002@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>3002</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="1">
+        <v>310018</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10000008</v>
+      </c>
+      <c r="M9" s="1">
+        <v>20000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>2022</v>
       </c>
@@ -833,8 +1072,26 @@
         <f t="shared" si="0"/>
         <v>3003@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1">
+        <v>3003</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="1">
+        <v>310019</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10000009</v>
+      </c>
+      <c r="M10" s="1">
+        <v>20000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>2022</v>
       </c>
@@ -857,8 +1114,26 @@
         <f t="shared" si="0"/>
         <v>4001@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>4001</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1">
+        <v>410020</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10000010</v>
+      </c>
+      <c r="M11" s="1">
+        <v>20000010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>2022</v>
       </c>
@@ -881,8 +1156,26 @@
         <f t="shared" si="0"/>
         <v>4002@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1">
+        <v>4002</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="1">
+        <v>410021</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10000011</v>
+      </c>
+      <c r="M12" s="1">
+        <v>20000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>2022</v>
       </c>
@@ -905,8 +1198,26 @@
         <f t="shared" si="0"/>
         <v>4003@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1">
+        <v>4003</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="1">
+        <v>410022</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10000012</v>
+      </c>
+      <c r="M13" s="1">
+        <v>20000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>2022</v>
       </c>
@@ -929,8 +1240,26 @@
         <f t="shared" si="0"/>
         <v>5001@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1">
+        <v>5001</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="1">
+        <v>510023</v>
+      </c>
+      <c r="L14" s="1">
+        <v>10000013</v>
+      </c>
+      <c r="M14" s="1">
+        <v>20000013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>2022</v>
       </c>
@@ -953,8 +1282,26 @@
         <f t="shared" si="0"/>
         <v>5002@staff.arteria-s.net</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1">
+        <v>5002</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="1">
+        <v>510024</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10000014</v>
+      </c>
+      <c r="M15" s="1">
+        <v>20000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>2022</v>
       </c>
@@ -976,6 +1323,24 @@
       <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5003@staff.arteria-s.net</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5003</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="1">
+        <v>510025</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10000015</v>
+      </c>
+      <c r="M16" s="1">
+        <v>20000015</v>
       </c>
     </row>
   </sheetData>
